--- a/species/Species codes.xlsx
+++ b/species/Species codes.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nancy\Documents\GitHub\Chatfield_restoration\species\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885D280E-B3E4-4836-B2CC-B3A1D6F2979A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46E0A33-FEA0-4E65-B996-31BB2885FD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="495">
   <si>
     <t>unknown</t>
   </si>
@@ -266,9 +259,6 @@
   </si>
   <si>
     <t>Cardaria draba</t>
-  </si>
-  <si>
-    <t>CADR</t>
   </si>
   <si>
     <t>Bromus japonicus</t>
@@ -1594,6 +1584,48 @@
   </si>
   <si>
     <t>Solidago rigidum</t>
+  </si>
+  <si>
+    <t>LEDR</t>
+  </si>
+  <si>
+    <t>Lepidium draba</t>
+  </si>
+  <si>
+    <t>PODO4</t>
+  </si>
+  <si>
+    <t>Polygonum douglasii</t>
+  </si>
+  <si>
+    <t>Chamaesyce maculata</t>
+  </si>
+  <si>
+    <t>HYGL</t>
+  </si>
+  <si>
+    <t>LIVU2</t>
+  </si>
+  <si>
+    <t>Linaria vulgaris</t>
+  </si>
+  <si>
+    <t>PEST2</t>
+  </si>
+  <si>
+    <t>Penstemon strictus</t>
+  </si>
+  <si>
+    <t>SOAS</t>
+  </si>
+  <si>
+    <t>Sonchus asper</t>
+  </si>
+  <si>
+    <t>TRAE</t>
+  </si>
+  <si>
+    <t>Triticum aestivum</t>
   </si>
 </sst>
 </file>
@@ -1650,12 +1682,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1670,7 +1708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1679,6 +1717,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1993,10 +2034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I322"/>
+  <dimension ref="A1:I328"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="E139" sqref="E139:F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,101 +2050,101 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>469</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I2" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>468</v>
+      </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
-        <v>250</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>249</v>
+      </c>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2114,10 +2155,10 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2128,10 +2169,10 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2142,319 +2183,319 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="E10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="E11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>451</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>453</v>
-      </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="E14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G14" s="2"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>463</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>465</v>
-      </c>
       <c r="E15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>379</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="E17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="E18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>363</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>381</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="E20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>365</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="E24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>383</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="E25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="E27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="E28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>182</v>
+        <v>316</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>183</v>
+        <v>315</v>
       </c>
       <c r="E29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>317</v>
+        <v>475</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>316</v>
+        <v>476</v>
       </c>
       <c r="E30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>476</v>
+        <v>93</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>477</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
         <v>197</v>
@@ -2465,58 +2506,61 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>254</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>253</v>
       </c>
       <c r="E32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>255</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>254</v>
+        <v>485</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E33" t="s">
         <v>197</v>
       </c>
       <c r="F33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="E34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>439</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>441</v>
-      </c>
       <c r="E35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2527,38 +2571,38 @@
         <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>457</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="E37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I38" s="7"/>
     </row>
@@ -2570,75 +2614,75 @@
         <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="E40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="E41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>317</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="E42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>388</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>470</v>
+        <v>205</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="E44" t="s">
         <v>197</v>
@@ -2646,394 +2690,387 @@
       <c r="F44" t="s">
         <v>250</v>
       </c>
-      <c r="G44" s="2"/>
-      <c r="I44" s="7"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>202</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>203</v>
+        <v>387</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>469</v>
       </c>
       <c r="E45" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F45" t="s">
-        <v>251</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="I45" s="7"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>335</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="E46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>367</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="E48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>459</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="E49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>388</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="E51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I51" s="7"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>319</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="E52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I52" s="7"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>478</v>
+        <v>132</v>
       </c>
       <c r="E53" t="s">
         <v>197</v>
       </c>
       <c r="F53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>369</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>71</v>
+        <v>370</v>
       </c>
       <c r="E54" t="s">
         <v>197</v>
       </c>
       <c r="F54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>322</v>
+        <v>429</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>323</v>
+        <v>430</v>
       </c>
       <c r="E55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F55" t="s">
         <v>250</v>
       </c>
-      <c r="I55" s="7"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="E56" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>370</v>
+        <v>226</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="E57" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>430</v>
+        <v>321</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>431</v>
+        <v>322</v>
       </c>
       <c r="E58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F58" t="s">
-        <v>251</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="I58" s="7"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="E59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="E60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F60" t="s">
-        <v>251</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="I60" s="7"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>229</v>
+        <v>36</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>228</v>
+        <v>35</v>
       </c>
       <c r="E61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F61" t="s">
         <v>250</v>
       </c>
-      <c r="I61" s="7"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>426</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E62" t="s">
-        <v>197</v>
+        <v>425</v>
       </c>
       <c r="F62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>427</v>
+        <v>70</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>426</v>
+        <v>69</v>
+      </c>
+      <c r="E63" t="s">
+        <v>196</v>
       </c>
       <c r="F63" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F64" t="s">
-        <v>251</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="I64" s="7"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>390</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>67</v>
+        <v>391</v>
       </c>
       <c r="E65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I65" s="7"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>391</v>
+        <v>98</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>392</v>
+        <v>99</v>
       </c>
       <c r="E66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I66" s="7"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>99</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>100</v>
+        <v>431</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>471</v>
       </c>
       <c r="E67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F67" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I67" s="7"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>186</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="E68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="E69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I69" s="7"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>432</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>472</v>
+        <v>30</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E70" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I70" s="7"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E71" t="s">
-        <v>197</v>
-      </c>
-      <c r="F71" t="s">
-        <v>250</v>
-      </c>
-      <c r="I71" s="7"/>
+    <row r="71" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="B71" s="9"/>
+      <c r="I71" s="10"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -3043,118 +3080,122 @@
         <v>24</v>
       </c>
       <c r="E72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F72" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F73" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I73" s="7"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>255</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="E74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I74" s="7"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E75" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F75" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>435</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>437</v>
-      </c>
       <c r="E76" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F76" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>418</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="E77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F77" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>323</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="E78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F78" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>128</v>
+        <v>423</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>129</v>
+        <v>424</v>
       </c>
       <c r="E79" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F79" t="s">
-        <v>251</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="I79" s="7"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>424</v>
+        <v>481</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>425</v>
+        <v>482</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="E80" t="s">
         <v>197</v>
@@ -3162,14 +3203,13 @@
       <c r="F80" t="s">
         <v>250</v>
       </c>
-      <c r="I80" s="7"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E81" t="s">
         <v>197</v>
@@ -3177,20 +3217,19 @@
       <c r="F81" t="s">
         <v>250</v>
       </c>
-      <c r="I81" s="7"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>325</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="E82" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F82" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3201,104 +3240,105 @@
         <v>65</v>
       </c>
       <c r="E83" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I83" s="7"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E84" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F84" t="s">
-        <v>251</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="I84" s="7"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>103</v>
+        <v>487</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>104</v>
+        <v>488</v>
       </c>
       <c r="E85" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F85" t="s">
-        <v>251</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="I85" s="7"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="E86" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F86" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>334</v>
+        <v>102</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>335</v>
+        <v>103</v>
       </c>
       <c r="E87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F87" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>333</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E88" t="s">
+        <v>197</v>
+      </c>
+      <c r="F88" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>19</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F88" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="E89" t="s">
         <v>197</v>
       </c>
       <c r="F89" t="s">
-        <v>251</v>
-      </c>
-      <c r="G89" s="2"/>
+        <v>250</v>
+      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>328</v>
+        <v>64</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>329</v>
+        <v>63</v>
       </c>
       <c r="E90" t="s">
         <v>197</v>
@@ -3306,250 +3346,251 @@
       <c r="F90" t="s">
         <v>250</v>
       </c>
-      <c r="I90" s="7"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>417</v>
+      <c r="A91" s="5" t="s">
+        <v>393</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F91" t="s">
         <v>250</v>
       </c>
-      <c r="I91" s="7"/>
+      <c r="G91" s="2"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>184</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>473</v>
+        <v>327</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="E92" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F92" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I92" s="7"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>62</v>
-      </c>
-      <c r="B93" t="s">
-        <v>61</v>
+        <v>416</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E93" t="s">
+        <v>196</v>
       </c>
       <c r="F93" t="s">
-        <v>251</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="I93" s="7"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>403</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>404</v>
+        <v>183</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>472</v>
       </c>
       <c r="E94" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" t="s">
-        <v>251</v>
-      </c>
-      <c r="G94" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="I94" s="7"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>428</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E95" t="s">
-        <v>197</v>
+        <v>62</v>
+      </c>
+      <c r="B95" t="s">
+        <v>61</v>
       </c>
       <c r="F95" t="s">
-        <v>251</v>
-      </c>
-      <c r="G95" s="2"/>
+        <v>250</v>
+      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C96" t="s">
-        <v>481</v>
+        <v>403</v>
       </c>
       <c r="E96" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F96" t="s">
         <v>250</v>
       </c>
-      <c r="I96" s="1"/>
+      <c r="G96" s="2"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>226</v>
+        <v>427</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>225</v>
+        <v>428</v>
       </c>
       <c r="E97" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F97" t="s">
-        <v>251</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="G97" s="2"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>434</v>
+        <v>332</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>433</v>
+        <v>331</v>
+      </c>
+      <c r="C98" t="s">
+        <v>480</v>
       </c>
       <c r="E98" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F98" t="s">
-        <v>251</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="E99" t="s">
         <v>197</v>
       </c>
       <c r="F99" t="s">
-        <v>251</v>
-      </c>
-      <c r="I99" s="2"/>
+        <v>250</v>
+      </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F100" t="s">
         <v>250</v>
       </c>
-      <c r="I100" s="7"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>252</v>
+        <v>60</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>253</v>
+        <v>59</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>251</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="I101" s="2"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>181</v>
+        <v>401</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I102" s="7"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>58</v>
+        <v>251</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>57</v>
+        <v>252</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>330</v>
+        <v>179</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>331</v>
+        <v>180</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F104" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I104" s="7"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="E105" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F105" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>438</v>
+        <v>329</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>439</v>
+        <v>330</v>
       </c>
       <c r="E106" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F106" t="s">
-        <v>251</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="I106" s="7"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>372</v>
+        <v>489</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>373</v>
+        <v>490</v>
       </c>
       <c r="E107" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F107" t="s">
         <v>250</v>
@@ -3558,39 +3599,38 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E108" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F108" t="s">
         <v>250</v>
       </c>
-      <c r="I108" s="7"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>437</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>16</v>
+        <v>438</v>
       </c>
       <c r="E109" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F109" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>400</v>
+        <v>177</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>401</v>
+        <v>178</v>
       </c>
       <c r="E110" t="s">
         <v>197</v>
@@ -3598,86 +3638,85 @@
       <c r="F110" t="s">
         <v>250</v>
       </c>
-      <c r="I110" s="7"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>213</v>
+        <v>483</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>171</v>
+        <v>484</v>
       </c>
       <c r="E111" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F111" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>178</v>
+        <v>371</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>179</v>
+        <v>372</v>
       </c>
       <c r="E112" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F112" t="s">
-        <v>251</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="I112" s="7"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="E113" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F113" t="s">
-        <v>251</v>
-      </c>
-      <c r="I113" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="I113" s="7"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E114" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F114" t="s">
-        <v>251</v>
-      </c>
-      <c r="I114" s="2"/>
+        <v>250</v>
+      </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="E115" t="s">
         <v>197</v>
       </c>
       <c r="F115" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="E116" t="s">
         <v>197</v>
@@ -3685,133 +3724,135 @@
       <c r="F116" t="s">
         <v>250</v>
       </c>
-      <c r="I116" s="7"/>
+      <c r="I116" s="2"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>374</v>
+        <v>56</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>375</v>
+        <v>55</v>
       </c>
       <c r="E117" t="s">
         <v>197</v>
       </c>
       <c r="F117" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I117" s="2"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>399</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="E118" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F118" t="s">
-        <v>251</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="I118" s="7"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>205</v>
+        <v>53</v>
       </c>
       <c r="E119" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F119" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>462</v>
+        <v>221</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C120" s="1"/>
+        <v>220</v>
+      </c>
       <c r="E120" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F120" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I120" s="7"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>52</v>
+        <v>373</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>50</v>
+        <v>374</v>
       </c>
       <c r="E121" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F121" t="s">
-        <v>251</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="E122" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F122" t="s">
-        <v>251</v>
-      </c>
-      <c r="I122" s="2"/>
+        <v>250</v>
+      </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="E123" t="s">
         <v>197</v>
       </c>
       <c r="F123" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>120</v>
+        <v>461</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="C124" s="1"/>
       <c r="E124" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F124" t="s">
-        <v>251</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="I124" s="7"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E125" t="s">
         <v>197</v>
@@ -3819,14 +3860,13 @@
       <c r="F125" t="s">
         <v>250</v>
       </c>
-      <c r="I125" s="7"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>407</v>
+        <v>105</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>406</v>
+        <v>104</v>
       </c>
       <c r="E126" t="s">
         <v>197</v>
@@ -3834,14 +3874,14 @@
       <c r="F126" t="s">
         <v>250</v>
       </c>
-      <c r="I126" s="7"/>
+      <c r="I126" s="2"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>247</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>248</v>
+        <v>491</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="E127" t="s">
         <v>197</v>
@@ -3849,162 +3889,161 @@
       <c r="F127" t="s">
         <v>250</v>
       </c>
+      <c r="I127" s="2"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>397</v>
+        <v>171</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>399</v>
+        <v>172</v>
       </c>
       <c r="E128" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F128" t="s">
         <v>250</v>
       </c>
-      <c r="G128" s="2"/>
-      <c r="I128" s="7"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>193</v>
+        <v>119</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="E129" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F129" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>398</v>
+        <v>49</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>422</v>
+        <v>48</v>
       </c>
       <c r="E130" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I130" s="7"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>47</v>
+        <v>406</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>46</v>
+        <v>405</v>
       </c>
       <c r="E131" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F131" t="s">
-        <v>251</v>
-      </c>
-      <c r="I131" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="I131" s="7"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>423</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>435</v>
+        <v>246</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="E132" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F132" t="s">
-        <v>251</v>
-      </c>
-      <c r="I132" s="2"/>
+        <v>249</v>
+      </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>44</v>
+        <v>398</v>
       </c>
       <c r="E133" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F133" t="s">
-        <v>251</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="G133" s="2"/>
+      <c r="I133" s="7"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>376</v>
+        <v>192</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>377</v>
+        <v>26</v>
       </c>
       <c r="E134" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F134" t="s">
         <v>250</v>
       </c>
-      <c r="I134" s="7"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>43</v>
+        <v>397</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>42</v>
+        <v>421</v>
       </c>
       <c r="E135" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F135" t="s">
-        <v>251</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="I135" s="7"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E136" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F136" t="s">
-        <v>251</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="I136" s="2"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>189</v>
+        <v>422</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>190</v>
+        <v>434</v>
       </c>
       <c r="E137" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F137" t="s">
-        <v>251</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="I137" s="2"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>479</v>
+        <v>45</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>480</v>
+        <v>44</v>
       </c>
       <c r="E138" t="s">
         <v>197</v>
@@ -4015,53 +4054,56 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>136</v>
+        <v>493</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>137</v>
+        <v>494</v>
       </c>
       <c r="E139" t="s">
         <v>197</v>
       </c>
       <c r="F139" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>224</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C140" s="1"/>
+        <v>375</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="E140" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F140" t="s">
-        <v>250</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="I140" s="7"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E141" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F141" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>414</v>
+        <v>41</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>415</v>
+        <v>40</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E142" t="s">
         <v>197</v>
@@ -4069,135 +4111,154 @@
       <c r="F142" t="s">
         <v>250</v>
       </c>
-      <c r="I142" s="7"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>15</v>
-      </c>
-      <c r="C143" t="s">
-        <v>0</v>
-      </c>
-      <c r="G143" s="2">
-        <v>43221</v>
+        <v>188</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E143" t="s">
+        <v>196</v>
+      </c>
+      <c r="F143" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>14</v>
-      </c>
-      <c r="C144" t="s">
-        <v>0</v>
-      </c>
-      <c r="G144" s="2">
-        <v>43221</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E144" t="s">
+        <v>196</v>
+      </c>
+      <c r="F144" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>360</v>
-      </c>
-      <c r="C145" t="s">
-        <v>0</v>
-      </c>
-      <c r="G145" s="2">
-        <v>44348</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E145" t="s">
+        <v>196</v>
+      </c>
+      <c r="F145" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>354</v>
-      </c>
-      <c r="C146" t="s">
-        <v>0</v>
-      </c>
-      <c r="G146" s="2">
-        <v>44348</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="E146" t="s">
+        <v>196</v>
+      </c>
+      <c r="F146" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>122</v>
-      </c>
-      <c r="C147" t="s">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E147" t="s">
         <v>197</v>
       </c>
-      <c r="G147" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F147" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>413</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E148" t="s">
+        <v>196</v>
+      </c>
+      <c r="F148" t="s">
+        <v>249</v>
+      </c>
+      <c r="I148" s="7"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" t="s">
+        <v>0</v>
+      </c>
+      <c r="G149" s="2">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" t="s">
+        <v>0</v>
+      </c>
+      <c r="G150" s="2">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>359</v>
+      </c>
+      <c r="C151" t="s">
+        <v>0</v>
+      </c>
+      <c r="G151" s="2">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>353</v>
+      </c>
+      <c r="C152" t="s">
+        <v>0</v>
+      </c>
+      <c r="G152" s="2">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>121</v>
+      </c>
+      <c r="C153" t="s">
+        <v>0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>196</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>9</v>
-      </c>
-      <c r="C148" t="s">
-        <v>0</v>
-      </c>
-      <c r="G148" s="2">
-        <v>43221</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>258</v>
-      </c>
-      <c r="C149" t="s">
-        <v>0</v>
-      </c>
-      <c r="G149" s="4">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>341</v>
-      </c>
-      <c r="C150" t="s">
-        <v>0</v>
-      </c>
-      <c r="G150" s="2">
-        <v>44348</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>140</v>
-      </c>
-      <c r="C151" t="s">
-        <v>0</v>
-      </c>
-      <c r="G151" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>141</v>
-      </c>
-      <c r="C152" t="s">
-        <v>0</v>
-      </c>
-      <c r="G152" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153" t="s">
-        <v>0</v>
-      </c>
-      <c r="G153" s="2">
-        <v>43313</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>0</v>
@@ -4206,42 +4267,42 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="C155" t="s">
         <v>0</v>
       </c>
-      <c r="G155" s="2">
+      <c r="G155" s="4">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>340</v>
+      </c>
+      <c r="C156" t="s">
+        <v>0</v>
+      </c>
+      <c r="G156" s="2">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>139</v>
+      </c>
+      <c r="C157" t="s">
+        <v>0</v>
+      </c>
+      <c r="G157" s="2">
         <v>43617</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>230</v>
-      </c>
-      <c r="C156" t="s">
-        <v>0</v>
-      </c>
-      <c r="G156" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>345</v>
-      </c>
-      <c r="C157" t="s">
-        <v>0</v>
-      </c>
-      <c r="G157" s="2">
-        <v>44348</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C158" t="s">
         <v>0</v>
@@ -4250,42 +4311,42 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>0</v>
       </c>
       <c r="G159" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43313</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>0</v>
       </c>
       <c r="G160" s="2">
-        <v>43617</v>
+        <v>43221</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c r="C161" t="s">
         <v>0</v>
       </c>
       <c r="G161" s="2">
-        <v>43678</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C162" t="s">
         <v>0</v>
@@ -4296,29 +4357,29 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>145</v>
+        <v>344</v>
       </c>
       <c r="C163" t="s">
         <v>0</v>
       </c>
       <c r="G163" s="2">
-        <v>43617</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="C164" t="s">
         <v>0</v>
       </c>
       <c r="G164" s="2">
-        <v>43221</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="C165" t="s">
         <v>0</v>
@@ -4329,18 +4390,18 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="C166" t="s">
         <v>0</v>
       </c>
       <c r="G166" s="2">
-        <v>43313</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C167" t="s">
         <v>0</v>
@@ -4351,29 +4412,29 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>146</v>
+        <v>231</v>
       </c>
       <c r="C168" t="s">
         <v>0</v>
       </c>
       <c r="G168" s="2">
-        <v>43617</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="C169" t="s">
         <v>0</v>
       </c>
       <c r="G169" s="2">
-        <v>43678</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C170" t="s">
         <v>0</v>
@@ -4384,7 +4445,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C171" t="s">
         <v>0</v>
@@ -4395,18 +4456,18 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>259</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>0</v>
       </c>
-      <c r="G172" s="4">
-        <v>44032</v>
+      <c r="G172" s="2">
+        <v>43313</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C173" t="s">
         <v>0</v>
@@ -4417,7 +4478,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C174" t="s">
         <v>0</v>
@@ -4428,51 +4489,51 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="C175" t="s">
         <v>0</v>
       </c>
       <c r="G175" s="2">
-        <v>43221</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C176" t="s">
         <v>0</v>
       </c>
       <c r="G176" s="2">
-        <v>43313</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>148</v>
+        <v>234</v>
       </c>
       <c r="C177" t="s">
         <v>0</v>
       </c>
       <c r="G177" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="C178" t="s">
         <v>0</v>
       </c>
-      <c r="G178" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G178" s="4">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="C179" t="s">
         <v>0</v>
@@ -4481,42 +4542,42 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="C180" t="s">
         <v>0</v>
       </c>
       <c r="G180" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="C181" t="s">
         <v>0</v>
       </c>
       <c r="G181" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="C182" t="s">
         <v>0</v>
       </c>
       <c r="G182" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43313</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C183" t="s">
         <v>0</v>
@@ -4525,20 +4586,20 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>350</v>
+        <v>236</v>
       </c>
       <c r="C184" t="s">
         <v>0</v>
       </c>
       <c r="G184" s="2">
-        <v>44348</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="C185" t="s">
         <v>0</v>
@@ -4547,65 +4608,64 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>2</v>
+        <v>237</v>
       </c>
       <c r="C186" t="s">
         <v>0</v>
       </c>
       <c r="G186" s="2">
-        <v>43313</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>151</v>
+        <v>238</v>
       </c>
       <c r="C187" t="s">
         <v>0</v>
       </c>
       <c r="G187" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>148</v>
+      </c>
+      <c r="C188" t="s">
+        <v>0</v>
+      </c>
+      <c r="G188" s="2">
         <v>43617</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>214</v>
-      </c>
-      <c r="C188" t="s">
-        <v>0</v>
-      </c>
-      <c r="G188" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I188" s="2"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="C189" t="s">
         <v>0</v>
       </c>
       <c r="G189" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>152</v>
+        <v>349</v>
       </c>
       <c r="C190" t="s">
         <v>0</v>
       </c>
       <c r="G190" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C191" t="s">
         <v>0</v>
@@ -4613,22 +4673,21 @@
       <c r="G191" s="2">
         <v>43678</v>
       </c>
-      <c r="I191" s="2"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="C192" t="s">
         <v>0</v>
       </c>
       <c r="G192" s="2">
-        <v>43617</v>
+        <v>43313</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C193" t="s">
         <v>0</v>
@@ -4636,23 +4695,22 @@
       <c r="G193" s="2">
         <v>43617</v>
       </c>
-      <c r="I193" s="2"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>396</v>
+        <v>213</v>
       </c>
       <c r="C194" t="s">
         <v>0</v>
       </c>
       <c r="G194" s="2">
-        <v>44398</v>
+        <v>43678</v>
       </c>
       <c r="I194" s="2"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C195" t="s">
         <v>0</v>
@@ -4663,18 +4721,18 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>216</v>
+        <v>151</v>
       </c>
       <c r="C196" t="s">
         <v>0</v>
       </c>
       <c r="G196" s="2">
-        <v>43678</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="C197" t="s">
         <v>0</v>
@@ -4682,10 +4740,11 @@
       <c r="G197" s="2">
         <v>43678</v>
       </c>
+      <c r="I197" s="2"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C198" t="s">
         <v>0</v>
@@ -4696,52 +4755,53 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>243</v>
+        <v>153</v>
       </c>
       <c r="C199" t="s">
         <v>0</v>
       </c>
       <c r="G199" s="2">
-        <v>43678</v>
-      </c>
+        <v>43617</v>
+      </c>
+      <c r="I199" s="2"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>4</v>
+        <v>395</v>
       </c>
       <c r="C200" t="s">
         <v>0</v>
       </c>
-      <c r="G200" s="2" t="s">
-        <v>358</v>
-      </c>
+      <c r="G200" s="2">
+        <v>44398</v>
+      </c>
+      <c r="I200" s="2"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="C201" t="s">
         <v>0</v>
       </c>
       <c r="G201" s="2">
-        <v>43617</v>
-      </c>
-      <c r="I201" s="2"/>
+        <v>43678</v>
+      </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="C202" t="s">
         <v>0</v>
       </c>
       <c r="G202" s="2">
-        <v>43617</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="C203" t="s">
         <v>0</v>
@@ -4749,11 +4809,10 @@
       <c r="G203" s="2">
         <v>43678</v>
       </c>
-      <c r="I203" s="2"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C204" t="s">
         <v>0</v>
@@ -4764,41 +4823,41 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="C205" t="s">
         <v>0</v>
       </c>
       <c r="G205" s="2">
-        <v>43617</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="C206" t="s">
         <v>0</v>
       </c>
-      <c r="G206" s="2">
-        <v>43617</v>
-      </c>
-      <c r="I206" s="2"/>
+      <c r="G206" s="2" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>245</v>
+        <v>155</v>
       </c>
       <c r="C207" t="s">
         <v>0</v>
       </c>
       <c r="G207" s="2">
-        <v>43678</v>
-      </c>
+        <v>43617</v>
+      </c>
+      <c r="I207" s="2"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C208" t="s">
         <v>0</v>
@@ -4807,119 +4866,121 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>243</v>
+      </c>
+      <c r="C209" t="s">
+        <v>0</v>
+      </c>
+      <c r="G209" s="2">
+        <v>43678</v>
+      </c>
+      <c r="I209" s="2"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>157</v>
+      </c>
+      <c r="C210" t="s">
+        <v>0</v>
+      </c>
+      <c r="G210" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>158</v>
+      </c>
+      <c r="C211" t="s">
+        <v>0</v>
+      </c>
+      <c r="G211" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>159</v>
+      </c>
+      <c r="C212" t="s">
+        <v>0</v>
+      </c>
+      <c r="G212" s="2">
+        <v>43617</v>
+      </c>
+      <c r="I212" s="2"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>244</v>
+      </c>
+      <c r="C213" t="s">
+        <v>0</v>
+      </c>
+      <c r="G213" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>160</v>
+      </c>
+      <c r="C214" t="s">
+        <v>0</v>
+      </c>
+      <c r="G214" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>5</v>
       </c>
-      <c r="C209" t="s">
-        <v>0</v>
-      </c>
-      <c r="G209" s="2">
+      <c r="C215" t="s">
+        <v>0</v>
+      </c>
+      <c r="G215" s="2">
         <v>43313</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>1</v>
       </c>
-      <c r="C210" t="s">
-        <v>0</v>
-      </c>
-      <c r="G210" s="2">
+      <c r="C216" t="s">
+        <v>0</v>
+      </c>
+      <c r="G216" s="2">
         <v>43313</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>346</v>
-      </c>
-      <c r="C211" t="s">
-        <v>0</v>
-      </c>
-      <c r="G211" s="2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>345</v>
+      </c>
+      <c r="C217" t="s">
+        <v>0</v>
+      </c>
+      <c r="G217" s="2">
         <v>44348</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>351</v>
-      </c>
-      <c r="C212" t="s">
-        <v>0</v>
-      </c>
-      <c r="G212" s="2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>350</v>
+      </c>
+      <c r="C218" t="s">
+        <v>0</v>
+      </c>
+      <c r="G218" s="2">
         <v>44348</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>107</v>
-      </c>
-      <c r="C213" t="s">
-        <v>0</v>
-      </c>
-      <c r="G213" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>246</v>
-      </c>
-      <c r="C214" t="s">
-        <v>0</v>
-      </c>
-      <c r="G214" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>162</v>
-      </c>
-      <c r="C215" t="s">
-        <v>0</v>
-      </c>
-      <c r="G215" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>123</v>
-      </c>
-      <c r="C216" t="s">
-        <v>0</v>
-      </c>
-      <c r="G216" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>126</v>
-      </c>
-      <c r="C217" t="s">
-        <v>0</v>
-      </c>
-      <c r="G217" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>163</v>
-      </c>
-      <c r="C218" t="s">
-        <v>0</v>
-      </c>
-      <c r="G218" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="C219" t="s">
         <v>0</v>
@@ -4928,20 +4989,20 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="C220" t="s">
         <v>0</v>
       </c>
       <c r="G220" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C221" t="s">
         <v>0</v>
@@ -4950,86 +5011,86 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>265</v>
+        <v>122</v>
       </c>
       <c r="C222" t="s">
         <v>0</v>
       </c>
-      <c r="G222" s="4">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G222" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>266</v>
+        <v>125</v>
       </c>
       <c r="C223" t="s">
         <v>0</v>
       </c>
-      <c r="G223" s="4">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G223" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>267</v>
+        <v>162</v>
       </c>
       <c r="C224" t="s">
         <v>0</v>
       </c>
-      <c r="G224" s="4">
-        <v>44032</v>
+      <c r="G224" s="2">
+        <v>43617</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>355</v>
+        <v>163</v>
       </c>
       <c r="C225" t="s">
         <v>0</v>
       </c>
       <c r="G225" s="2">
-        <v>44348</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>338</v>
+        <v>164</v>
       </c>
       <c r="C226" t="s">
         <v>0</v>
       </c>
       <c r="G226" s="2">
-        <v>44348</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>342</v>
+        <v>165</v>
       </c>
       <c r="C227" t="s">
         <v>0</v>
       </c>
       <c r="G227" s="2">
-        <v>44348</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="C228" t="s">
         <v>0</v>
       </c>
-      <c r="G228" s="2">
-        <v>44348</v>
+      <c r="G228" s="4">
+        <v>44032</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C229" t="s">
         <v>0</v>
@@ -5040,7 +5101,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C230" t="s">
         <v>0</v>
@@ -5051,7 +5112,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C231" t="s">
         <v>0</v>
@@ -5062,29 +5123,29 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="C232" t="s">
         <v>0</v>
       </c>
-      <c r="G232" s="4">
-        <v>44032</v>
+      <c r="G232" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>271</v>
+        <v>341</v>
       </c>
       <c r="C233" t="s">
         <v>0</v>
       </c>
-      <c r="G233" s="4">
-        <v>44032</v>
+      <c r="G233" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C234" t="s">
         <v>0</v>
@@ -5095,62 +5156,62 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>408</v>
+        <v>267</v>
       </c>
       <c r="C235" t="s">
         <v>0</v>
       </c>
-      <c r="G235" s="2">
-        <v>44348</v>
+      <c r="G235" s="4">
+        <v>44032</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>352</v>
+        <v>268</v>
       </c>
       <c r="C236" t="s">
         <v>0</v>
       </c>
-      <c r="G236" s="2">
-        <v>44348</v>
+      <c r="G236" s="4">
+        <v>44032</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>272</v>
+        <v>356</v>
       </c>
       <c r="C237" t="s">
         <v>0</v>
       </c>
-      <c r="G237" s="4">
-        <v>44032</v>
+      <c r="G237" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>353</v>
+        <v>269</v>
       </c>
       <c r="C238" t="s">
         <v>0</v>
       </c>
-      <c r="G238" s="2">
-        <v>44348</v>
+      <c r="G238" s="4">
+        <v>44032</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>409</v>
+        <v>270</v>
       </c>
       <c r="C239" t="s">
         <v>0</v>
       </c>
-      <c r="G239" s="2">
-        <v>44348</v>
+      <c r="G239" s="4">
+        <v>44032</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>410</v>
+        <v>348</v>
       </c>
       <c r="C240" t="s">
         <v>0</v>
@@ -5161,40 +5222,40 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>273</v>
+        <v>407</v>
       </c>
       <c r="C241" t="s">
         <v>0</v>
       </c>
-      <c r="G241" s="4">
-        <v>44032</v>
+      <c r="G241" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>274</v>
+        <v>351</v>
       </c>
       <c r="C242" t="s">
         <v>0</v>
       </c>
-      <c r="G242" s="4">
-        <v>44032</v>
+      <c r="G242" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>411</v>
+        <v>271</v>
       </c>
       <c r="C243" t="s">
         <v>0</v>
       </c>
-      <c r="G243" s="2">
-        <v>44348</v>
+      <c r="G243" s="4">
+        <v>44032</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="C244" t="s">
         <v>0</v>
@@ -5205,7 +5266,7 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>348</v>
+        <v>408</v>
       </c>
       <c r="C245" t="s">
         <v>0</v>
@@ -5216,18 +5277,18 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>275</v>
+        <v>409</v>
       </c>
       <c r="C246" t="s">
         <v>0</v>
       </c>
-      <c r="G246" s="4">
-        <v>44032</v>
+      <c r="G246" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C247" t="s">
         <v>0</v>
@@ -5238,7 +5299,7 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C248" t="s">
         <v>0</v>
@@ -5249,29 +5310,29 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>278</v>
+        <v>410</v>
       </c>
       <c r="C249" t="s">
         <v>0</v>
       </c>
-      <c r="G249" s="4">
-        <v>44032</v>
+      <c r="G249" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="C250" t="s">
         <v>0</v>
       </c>
-      <c r="G250" s="4">
-        <v>44032</v>
+      <c r="G250" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="C251" t="s">
         <v>0</v>
@@ -5282,7 +5343,7 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C252" t="s">
         <v>0</v>
@@ -5293,29 +5354,29 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>413</v>
+        <v>275</v>
       </c>
       <c r="C253" t="s">
         <v>0</v>
       </c>
-      <c r="G253" s="2">
-        <v>44348</v>
+      <c r="G253" s="4">
+        <v>44032</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>340</v>
+        <v>276</v>
       </c>
       <c r="C254" t="s">
         <v>0</v>
       </c>
-      <c r="G254" s="2">
-        <v>44348</v>
+      <c r="G254" s="4">
+        <v>44032</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C255" t="s">
         <v>0</v>
@@ -5326,7 +5387,7 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C256" t="s">
         <v>0</v>
@@ -5337,18 +5398,18 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>283</v>
+        <v>411</v>
       </c>
       <c r="C257" t="s">
         <v>0</v>
       </c>
-      <c r="G257" s="4">
-        <v>44032</v>
+      <c r="G257" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C258" t="s">
         <v>0</v>
@@ -5359,7 +5420,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>344</v>
+        <v>412</v>
       </c>
       <c r="C259" t="s">
         <v>0</v>
@@ -5370,18 +5431,18 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="C260" t="s">
         <v>0</v>
       </c>
-      <c r="G260" s="4">
-        <v>44032</v>
+      <c r="G260" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C261" t="s">
         <v>0</v>
@@ -5392,7 +5453,7 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C262" t="s">
         <v>0</v>
@@ -5403,7 +5464,7 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C263" t="s">
         <v>0</v>
@@ -5414,7 +5475,7 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C264" t="s">
         <v>0</v>
@@ -5425,18 +5486,18 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="C265" t="s">
         <v>0</v>
       </c>
-      <c r="G265" s="4">
-        <v>44032</v>
+      <c r="G265" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C266" t="s">
         <v>0</v>
@@ -5447,7 +5508,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C267" t="s">
         <v>0</v>
@@ -5458,7 +5519,7 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C268" t="s">
         <v>0</v>
@@ -5469,7 +5530,7 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C269" t="s">
         <v>0</v>
@@ -5480,18 +5541,18 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>356</v>
+        <v>288</v>
       </c>
       <c r="C270" t="s">
         <v>0</v>
       </c>
-      <c r="G270" s="2">
-        <v>44348</v>
+      <c r="G270" s="4">
+        <v>44032</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C271" t="s">
         <v>0</v>
@@ -5502,7 +5563,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C272" t="s">
         <v>0</v>
@@ -5513,7 +5574,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C273" t="s">
         <v>0</v>
@@ -5524,7 +5585,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C274" t="s">
         <v>0</v>
@@ -5535,29 +5596,29 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>347</v>
+        <v>293</v>
       </c>
       <c r="C275" t="s">
         <v>0</v>
       </c>
-      <c r="G275" s="2">
-        <v>44348</v>
+      <c r="G275" s="4">
+        <v>44032</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>299</v>
+        <v>355</v>
       </c>
       <c r="C276" t="s">
         <v>0</v>
       </c>
-      <c r="G276" s="4">
-        <v>44032</v>
+      <c r="G276" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C277" t="s">
         <v>0</v>
@@ -5568,7 +5629,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C278" t="s">
         <v>0</v>
@@ -5579,7 +5640,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C279" t="s">
         <v>0</v>
@@ -5590,7 +5651,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C280" t="s">
         <v>0</v>
@@ -5601,18 +5662,18 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="C281" t="s">
         <v>0</v>
       </c>
-      <c r="G281" s="4">
-        <v>44032</v>
+      <c r="G281" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C282" t="s">
         <v>0</v>
@@ -5623,7 +5684,7 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C283" t="s">
         <v>0</v>
@@ -5634,7 +5695,7 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C284" t="s">
         <v>0</v>
@@ -5645,7 +5706,7 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C285" t="s">
         <v>0</v>
@@ -5656,7 +5717,7 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C286" t="s">
         <v>0</v>
@@ -5667,7 +5728,7 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C287" t="s">
         <v>0</v>
@@ -5678,7 +5739,7 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C288" t="s">
         <v>0</v>
@@ -5687,9 +5748,9 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C289" t="s">
         <v>0</v>
@@ -5698,9 +5759,9 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="C290" t="s">
         <v>0</v>
@@ -5709,9 +5770,9 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="C291" t="s">
         <v>0</v>
@@ -5720,9 +5781,9 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C292" t="s">
         <v>0</v>
@@ -5731,9 +5792,9 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C293" t="s">
         <v>0</v>
@@ -5742,9 +5803,9 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="C294" t="s">
         <v>0</v>
@@ -5753,9 +5814,9 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C295" t="s">
         <v>0</v>
@@ -5764,87 +5825,86 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>263</v>
+      </c>
+      <c r="C296" t="s">
+        <v>0</v>
+      </c>
+      <c r="G296" s="4">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>262</v>
+      </c>
+      <c r="C297" t="s">
+        <v>0</v>
+      </c>
+      <c r="G297" s="4">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>259</v>
+      </c>
+      <c r="C298" t="s">
+        <v>0</v>
+      </c>
+      <c r="G298" s="4">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>260</v>
+      </c>
+      <c r="C299" t="s">
+        <v>0</v>
+      </c>
+      <c r="G299" s="4">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>261</v>
+      </c>
+      <c r="C300" t="s">
+        <v>0</v>
+      </c>
+      <c r="G300" s="4">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>312</v>
+      </c>
+      <c r="C301" t="s">
+        <v>0</v>
+      </c>
+      <c r="G301" s="4">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
         <v>13</v>
       </c>
-      <c r="C296" t="s">
-        <v>0</v>
-      </c>
-      <c r="G296" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>108</v>
-      </c>
-      <c r="C297" t="s">
-        <v>0</v>
-      </c>
-      <c r="G297" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>109</v>
-      </c>
-      <c r="C298" t="s">
-        <v>0</v>
-      </c>
-      <c r="G298" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>110</v>
-      </c>
-      <c r="C299" t="s">
-        <v>0</v>
-      </c>
-      <c r="G299" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>111</v>
-      </c>
-      <c r="C300" t="s">
-        <v>0</v>
-      </c>
-      <c r="G300" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>112</v>
-      </c>
-      <c r="C301" t="s">
-        <v>0</v>
-      </c>
-      <c r="G301" s="2">
-        <v>43617</v>
-      </c>
-      <c r="I301" s="2"/>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>113</v>
-      </c>
       <c r="C302" t="s">
         <v>0</v>
       </c>
-      <c r="G302" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G302" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C303" t="s">
         <v>0</v>
@@ -5853,9 +5913,9 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C304" t="s">
         <v>0</v>
@@ -5864,9 +5924,9 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C305" t="s">
         <v>0</v>
@@ -5875,20 +5935,20 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C306" t="s">
         <v>0</v>
       </c>
       <c r="G306" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C307" t="s">
         <v>0</v>
@@ -5896,10 +5956,11 @@
       <c r="G307" s="2">
         <v>43617</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I307" s="2"/>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C308" t="s">
         <v>0</v>
@@ -5908,9 +5969,9 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C309" t="s">
         <v>0</v>
@@ -5919,9 +5980,9 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C310" t="s">
         <v>0</v>
@@ -5930,108 +5991,108 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
+        <v>115</v>
+      </c>
+      <c r="C311" t="s">
+        <v>0</v>
+      </c>
+      <c r="G311" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>115</v>
+      </c>
+      <c r="C312" t="s">
+        <v>0</v>
+      </c>
+      <c r="G312" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>116</v>
+      </c>
+      <c r="C313" t="s">
+        <v>0</v>
+      </c>
+      <c r="G313" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>117</v>
+      </c>
+      <c r="C314" t="s">
+        <v>0</v>
+      </c>
+      <c r="G314" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>118</v>
+      </c>
+      <c r="C315" t="s">
+        <v>0</v>
+      </c>
+      <c r="G315" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>126</v>
+      </c>
+      <c r="C316" t="s">
+        <v>0</v>
+      </c>
+      <c r="G316" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>441</v>
+      </c>
+      <c r="C317" t="s">
         <v>442</v>
-      </c>
-      <c r="C311" t="s">
-        <v>443</v>
-      </c>
-      <c r="G311" s="4">
-        <v>44734</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>444</v>
-      </c>
-      <c r="C312" t="s">
-        <v>446</v>
-      </c>
-      <c r="G312" s="4">
-        <v>44734</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>445</v>
-      </c>
-      <c r="C313" t="s">
-        <v>447</v>
-      </c>
-      <c r="G313" s="4">
-        <v>44734</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>448</v>
-      </c>
-      <c r="C314" t="s">
-        <v>0</v>
-      </c>
-      <c r="G314" s="4">
-        <v>44734</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>449</v>
-      </c>
-      <c r="C315" t="s">
-        <v>0</v>
-      </c>
-      <c r="G315" s="4">
-        <v>44734</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A316" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="C316" t="s">
-        <v>0</v>
-      </c>
-      <c r="G316" s="4">
-        <v>44734</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A317" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="C317" t="s">
-        <v>0</v>
       </c>
       <c r="G317" s="4">
         <v>44734</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318" s="6" t="s">
-        <v>456</v>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>443</v>
       </c>
       <c r="C318" t="s">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="G318" s="4">
         <v>44734</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" s="6" t="s">
-        <v>457</v>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>444</v>
       </c>
       <c r="C319" t="s">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="G319" s="4">
         <v>44734</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" s="6" t="s">
-        <v>466</v>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>447</v>
       </c>
       <c r="C320" t="s">
         <v>0</v>
@@ -6041,8 +6102,8 @@
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321" s="6" t="s">
-        <v>467</v>
+      <c r="A321" t="s">
+        <v>448</v>
       </c>
       <c r="C321" t="s">
         <v>0</v>
@@ -6053,7 +6114,7 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="C322" t="s">
         <v>0</v>
@@ -6062,9 +6123,75 @@
         <v>44734</v>
       </c>
     </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C323" t="s">
+        <v>0</v>
+      </c>
+      <c r="G323" s="4">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C324" t="s">
+        <v>0</v>
+      </c>
+      <c r="G324" s="4">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C325" t="s">
+        <v>0</v>
+      </c>
+      <c r="G325" s="4">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C326" t="s">
+        <v>0</v>
+      </c>
+      <c r="G326" s="4">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C327" t="s">
+        <v>0</v>
+      </c>
+      <c r="G327" s="4">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C328" t="s">
+        <v>0</v>
+      </c>
+      <c r="G328" s="4">
+        <v>44734</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J323">
-    <sortCondition ref="B2:B323"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J329">
+    <sortCondition ref="B2:B329"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
